--- a/upload_template/LeaveBalance_Upload.xlsx
+++ b/upload_template/LeaveBalance_Upload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>CompCode</t>
   </si>
@@ -39,15 +39,6 @@
     <t>CL</t>
   </si>
   <si>
-    <t>SL</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -57,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +428,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -445,13 +436,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D2" s="1">
         <v>20005890</v>
@@ -461,66 +452,6 @@
       </c>
       <c r="F2" s="1">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D3" s="1">
-        <v>20005890</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D4" s="1">
-        <v>20005890</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D5" s="1">
-        <v>20005890</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/upload_template/LeaveBalance_Upload.xlsx
+++ b/upload_template/LeaveBalance_Upload.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F15819-8C29-4292-84F7-BC3AFF729C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>CompCode</t>
   </si>
@@ -36,19 +37,19 @@
     <t>COMP</t>
   </si>
   <si>
-    <t>CL</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
     <t>LeaveType</t>
+  </si>
+  <si>
+    <t>OH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -73,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -81,11 +82,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -94,6 +110,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -189,6 +211,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -224,6 +263,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,59 +455,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
         <v>2019</v>
       </c>
-      <c r="D2" s="1">
-        <v>20005890</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1">
-        <v>7</v>
+      <c r="F2" s="4">
+        <v>104019</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -461,7 +531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -473,7 +543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
